--- a/TestData/LV_T1432_OpportunityToEngagementConversionMappingForFVAJobTypes.xlsx
+++ b/TestData/LV_T1432_OpportunityToEngagementConversionMappingForFVAJobTypes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA40EE2-98D9-4E61-8C72-EB4142DF2B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1468DD0C-131E-4F81-A09C-18F58585BBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="548" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="548" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StandardUser" sheetId="2" r:id="rId1"/>
@@ -21,9 +21,9 @@
     <sheet name="InternalTeams" sheetId="18" r:id="rId6"/>
     <sheet name="AddContact" sheetId="14" r:id="rId7"/>
     <sheet name="Engagement" sheetId="20" r:id="rId8"/>
-    <sheet name="OppDealTeamMembers" sheetId="21" r:id="rId9"/>
-    <sheet name="Roles" sheetId="22" r:id="rId10"/>
-    <sheet name="OverlimitMessage" sheetId="23" r:id="rId11"/>
+    <sheet name="Notes" sheetId="24" r:id="rId9"/>
+    <sheet name="OppTASPrjStage" sheetId="25" r:id="rId10"/>
+    <sheet name="EngTASPrjStage" sheetId="26" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="119">
   <si>
     <t>James Craven</t>
   </si>
@@ -264,9 +264,6 @@
     <t>Engagements</t>
   </si>
   <si>
-    <t>Indrajeet Singh</t>
-  </si>
-  <si>
     <t>FA - Portfolio-Advis/Consulting</t>
   </si>
   <si>
@@ -282,9 +279,6 @@
     <t>10000</t>
   </si>
   <si>
-    <t>Liz Hedgcock</t>
-  </si>
-  <si>
     <t>Tombstone Permission</t>
   </si>
   <si>
@@ -303,21 +297,6 @@
     <t>FA - Portfolio-Diligence/Assets</t>
   </si>
   <si>
-    <t>FA - Portfolio-Funds Transfer</t>
-  </si>
-  <si>
-    <t>FA - Portfolio-GP interest</t>
-  </si>
-  <si>
-    <t>FA - Portfolio-Real Estate</t>
-  </si>
-  <si>
-    <t>FA - Portfolio-Valuation</t>
-  </si>
-  <si>
-    <t>FA - Portfolio-Auto Struct Prd/Consulting</t>
-  </si>
-  <si>
     <t>System Admin</t>
   </si>
   <si>
@@ -330,230 +309,107 @@
     <t>HLEntity</t>
   </si>
   <si>
-    <t>UpdateJobType</t>
-  </si>
-  <si>
     <t>Retained</t>
   </si>
   <si>
     <t>Portfolio Valuation</t>
   </si>
   <si>
-    <t>OppDealTeamMembers</t>
-  </si>
-  <si>
-    <t>Elaine Pan</t>
-  </si>
-  <si>
-    <t>Aaron Schultz</t>
-  </si>
-  <si>
-    <t>Ben Chiu</t>
-  </si>
-  <si>
-    <t>Blair Richardson</t>
-  </si>
-  <si>
-    <t>Conrad Kolasa</t>
-  </si>
-  <si>
     <t>Dimitri Drone</t>
   </si>
   <si>
-    <t>Jason Vierig</t>
-  </si>
-  <si>
-    <t>Karim Jooma</t>
-  </si>
-  <si>
-    <t>Kyle Poorman</t>
-  </si>
-  <si>
-    <t>Marshall Taylor</t>
-  </si>
-  <si>
-    <t>Matt Kavney</t>
-  </si>
-  <si>
-    <t>Matt Sturgell</t>
-  </si>
-  <si>
-    <t>Michael Chiu</t>
-  </si>
-  <si>
-    <t>Ozzie Ozdemir</t>
-  </si>
-  <si>
-    <t>Paul Birchwood</t>
-  </si>
-  <si>
-    <t>Prashant Kamath</t>
-  </si>
-  <si>
-    <t>Preston Wolf</t>
-  </si>
-  <si>
-    <t>Ali Amin</t>
-  </si>
-  <si>
-    <t>Rittik Chakrabarti</t>
-  </si>
-  <si>
-    <t>Robert Zarnoch</t>
-  </si>
-  <si>
-    <t>Ryan Verola</t>
-  </si>
-  <si>
-    <t>Ryan Mahlan</t>
-  </si>
-  <si>
-    <t>Sid Chitnis</t>
-  </si>
-  <si>
-    <t>Susanna O'Brien</t>
-  </si>
-  <si>
-    <t>Zach Hamilton</t>
-  </si>
-  <si>
-    <t>Rebecca Hu</t>
-  </si>
-  <si>
-    <t>Timothy Kang</t>
-  </si>
-  <si>
-    <t>Abhinav Pal</t>
-  </si>
-  <si>
-    <t>Adam Dunayer</t>
-  </si>
-  <si>
-    <t>Adam Ishola</t>
-  </si>
-  <si>
-    <t>Adam Schor</t>
-  </si>
-  <si>
-    <t>Aditi Singh</t>
-  </si>
-  <si>
-    <t>Aditya Aiyer</t>
-  </si>
-  <si>
-    <t>Aditya Tyagi</t>
-  </si>
-  <si>
-    <t>Adnan Sura</t>
-  </si>
-  <si>
-    <t>Adriana Stacey</t>
-  </si>
-  <si>
-    <t>Afnan Ahmed</t>
-  </si>
-  <si>
-    <t>Ahmed Elbiltagui</t>
-  </si>
-  <si>
-    <t>Aidan Fitzgibbon</t>
-  </si>
-  <si>
-    <t>AJ Amankwaa</t>
-  </si>
-  <si>
-    <t>Ajay Arelli</t>
-  </si>
-  <si>
-    <t>Akshat Jamad</t>
-  </si>
-  <si>
-    <t>Alex Dochter</t>
-  </si>
-  <si>
-    <t>Alberico Altieri</t>
-  </si>
-  <si>
-    <t>Allen Plunk</t>
-  </si>
-  <si>
-    <t>Albert Sung</t>
-  </si>
-  <si>
-    <t>Alfonso Garcia</t>
-  </si>
-  <si>
-    <t>Aleksandra Chadam</t>
-  </si>
-  <si>
-    <t>Alessandro Ciravegna</t>
-  </si>
-  <si>
-    <t>Alessandro Rossi</t>
-  </si>
-  <si>
-    <t>Alexander Garcia</t>
-  </si>
-  <si>
-    <t>Alex Cohen</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Analyst</t>
-  </si>
-  <si>
-    <t>Associate</t>
-  </si>
-  <si>
-    <t>OverlimitMessage</t>
-  </si>
-  <si>
-    <t>MaxMembersLimit</t>
-  </si>
-  <si>
-    <t>Please remove and re-add the following deal team member(s) to the internal team and then add the desired role(s). Removing the deal team member will allow the Office Allocation field to re-populate.</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Alex Herrera</t>
-  </si>
-  <si>
-    <t>Alex Shuleschenko</t>
-  </si>
-  <si>
-    <t>Alex St. Pierre</t>
-  </si>
-  <si>
-    <t>Alex Krakovsky</t>
-  </si>
-  <si>
-    <t>Alex Lerer</t>
-  </si>
-  <si>
-    <t>Alex Orlean</t>
-  </si>
-  <si>
-    <t>Alex Raskin</t>
-  </si>
-  <si>
-    <t>Alex Sullivan</t>
-  </si>
-  <si>
     <t>IndustryGroup/HLSector</t>
   </si>
   <si>
     <t>BUS - Business Services</t>
+  </si>
+  <si>
+    <t>Lorriane Johnson</t>
+  </si>
+  <si>
+    <t>Compliance User</t>
+  </si>
+  <si>
+    <t>Christine Sha</t>
+  </si>
+  <si>
+    <t>Legal User</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Legal Hold test Notes</t>
+  </si>
+  <si>
+    <t>Blaise Brunda</t>
+  </si>
+  <si>
+    <t>Ajay Nair</t>
+  </si>
+  <si>
+    <t>TAS - ESG Due Diligence &amp; Analytics</t>
+  </si>
+  <si>
+    <t>TAS - Lender Services</t>
+  </si>
+  <si>
+    <t>TAS - Tax</t>
+  </si>
+  <si>
+    <t>TAS - Due Diligence-Buyside Add-On</t>
+  </si>
+  <si>
+    <t>TAS - Due Diligence-Sellside</t>
+  </si>
+  <si>
+    <t>Opportunity TAS Project Stage</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Active Opportunity</t>
+  </si>
+  <si>
+    <t>Closed Opportunity – Deal Died</t>
+  </si>
+  <si>
+    <t>Closed Opportunity – Lost to Competitor</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>Dead – Deal Died After Engagement</t>
+  </si>
+  <si>
+    <t>Engaged – Ongoing</t>
+  </si>
+  <si>
+    <t>Engaged – On hold – Awaiting Data</t>
+  </si>
+  <si>
+    <t>Engaged – On hold – Deal Issues</t>
+  </si>
+  <si>
+    <t>Engaged – On hold – Market Issue</t>
+  </si>
+  <si>
+    <t>Work completed – Client did not Move Forward</t>
+  </si>
+  <si>
+    <t>Work completed – Transaction Occurred</t>
+  </si>
+  <si>
+    <t>TAS - Due Diligence Services</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -584,13 +440,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -670,7 +519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -685,13 +534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -976,7 +819,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,7 +842,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1011,35 +854,41 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72C63D9-9284-4C4B-9F1D-16D1550F550E}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4441AC86-366C-40F8-9BCC-E2B3B63AF008}">
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1048,41 +897,61 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938FB3C8-D05A-4A1D-9559-104A9F0AD28A}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071B5EE3-B9AA-4965-8B0B-FE910633BA18}">
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>156</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1092,16 +961,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204DA895-5616-4092-9340-8DD85852997B}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1117,7 +987,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -1128,10 +998,26 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1203,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD13242-055E-41A8-80D8-6F50F1B57F7C}">
-  <dimension ref="A1:AE11"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,10 +1113,9 @@
     <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1241,7 +1126,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
@@ -1307,7 +1192,7 @@
         <v>33</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>34</v>
@@ -1316,24 +1201,24 @@
         <v>35</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>73</v>
+      <c r="C2" t="s">
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
         <v>38</v>
@@ -1354,7 +1239,7 @@
         <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s">
         <v>41</v>
@@ -1363,7 +1248,7 @@
         <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>43</v>
@@ -1396,39 +1281,36 @@
         <v>49</v>
       </c>
       <c r="Y2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s">
         <v>50</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AD2" t="s">
         <v>51</v>
       </c>
-      <c r="AE2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>81</v>
+      <c r="C3" t="s">
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
         <v>38</v>
@@ -1449,7 +1331,7 @@
         <v>39</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L3" t="s">
         <v>41</v>
@@ -1458,7 +1340,7 @@
         <v>42</v>
       </c>
       <c r="N3" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>43</v>
@@ -1491,39 +1373,36 @@
         <v>49</v>
       </c>
       <c r="Y3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z3" t="s">
         <v>50</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AD3" t="s">
         <v>39</v>
       </c>
-      <c r="AE3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>82</v>
+      <c r="C4" t="s">
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
         <v>38</v>
@@ -1544,7 +1423,7 @@
         <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L4" t="s">
         <v>41</v>
@@ -1553,7 +1432,7 @@
         <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>43</v>
@@ -1586,39 +1465,36 @@
         <v>49</v>
       </c>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="s">
         <v>50</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AD4" t="s">
         <v>51</v>
       </c>
-      <c r="AE4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>83</v>
+      <c r="C5" t="s">
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
         <v>38</v>
@@ -1639,7 +1515,7 @@
         <v>39</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
         <v>41</v>
@@ -1648,7 +1524,7 @@
         <v>42</v>
       </c>
       <c r="N5" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>43</v>
@@ -1681,39 +1557,36 @@
         <v>49</v>
       </c>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s">
         <v>50</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AD5" t="s">
         <v>39</v>
       </c>
-      <c r="AE5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>84</v>
+      <c r="C6" t="s">
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
         <v>38</v>
@@ -1734,7 +1607,7 @@
         <v>39</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s">
         <v>41</v>
@@ -1743,7 +1616,7 @@
         <v>42</v>
       </c>
       <c r="N6" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>43</v>
@@ -1776,39 +1649,36 @@
         <v>49</v>
       </c>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s">
         <v>50</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AD6" t="s">
         <v>51</v>
       </c>
-      <c r="AE6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>85</v>
+      <c r="C7" t="s">
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
         <v>38</v>
@@ -1829,7 +1699,7 @@
         <v>39</v>
       </c>
       <c r="K7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L7" t="s">
         <v>41</v>
@@ -1838,7 +1708,7 @@
         <v>42</v>
       </c>
       <c r="N7" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>43</v>
@@ -1871,39 +1741,36 @@
         <v>49</v>
       </c>
       <c r="Y7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z7" t="s">
         <v>50</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AD7" t="s">
         <v>39</v>
       </c>
-      <c r="AE7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>86</v>
+      <c r="C8" t="s">
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
         <v>38</v>
@@ -1924,7 +1791,7 @@
         <v>39</v>
       </c>
       <c r="K8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L8" t="s">
         <v>41</v>
@@ -1933,7 +1800,7 @@
         <v>42</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>43</v>
@@ -1966,39 +1833,36 @@
         <v>49</v>
       </c>
       <c r="Y8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z8" t="s">
         <v>50</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AD8" t="s">
         <v>51</v>
       </c>
-      <c r="AE8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>87</v>
+      <c r="C9" t="s">
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
         <v>38</v>
@@ -2019,7 +1883,7 @@
         <v>39</v>
       </c>
       <c r="K9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L9" t="s">
         <v>41</v>
@@ -2028,7 +1892,7 @@
         <v>42</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>43</v>
@@ -2061,39 +1925,36 @@
         <v>49</v>
       </c>
       <c r="Y9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z9" t="s">
         <v>50</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AD9" t="s">
         <v>39</v>
       </c>
-      <c r="AE9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>88</v>
+      <c r="C10" t="s">
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
         <v>38</v>
@@ -2114,7 +1975,7 @@
         <v>39</v>
       </c>
       <c r="K10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L10" t="s">
         <v>41</v>
@@ -2123,7 +1984,7 @@
         <v>42</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>43</v>
@@ -2156,39 +2017,36 @@
         <v>49</v>
       </c>
       <c r="Y10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z10" t="s">
         <v>50</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AD10" t="s">
         <v>51</v>
       </c>
-      <c r="AE10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>89</v>
+      <c r="C11" t="s">
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
         <v>38</v>
@@ -2209,7 +2067,7 @@
         <v>39</v>
       </c>
       <c r="K11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" t="s">
         <v>41</v>
@@ -2218,7 +2076,7 @@
         <v>42</v>
       </c>
       <c r="N11" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>43</v>
@@ -2251,25 +2109,22 @@
         <v>49</v>
       </c>
       <c r="Y11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z11" t="s">
         <v>50</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AD11" t="s">
         <v>51</v>
-      </c>
-      <c r="AE11">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2409,7 +2264,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2422,184 +2277,162 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>73</v>
-      </c>
+      <c r="D2" s="5"/>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="D3" s="6"/>
       <c r="E3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>82</v>
-      </c>
+      <c r="D4" s="6"/>
       <c r="E4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>96</v>
+        <v>87</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="C5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>83</v>
-      </c>
+      <c r="D5" s="6"/>
       <c r="E5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>96</v>
+        <v>87</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="C6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>84</v>
-      </c>
+      <c r="D6" s="6"/>
       <c r="E6">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>96</v>
+        <v>87</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="C7" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>85</v>
-      </c>
+      <c r="D7" s="6"/>
       <c r="E7">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>96</v>
+        <v>87</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="C8" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="D8" s="6"/>
       <c r="E8">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>96</v>
+        <v>87</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="C9" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>87</v>
-      </c>
+      <c r="D9" s="6"/>
       <c r="E9">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>96</v>
+        <v>87</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="C10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>88</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>96</v>
+        <v>87</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>89</v>
-      </c>
+      <c r="D11" s="8"/>
       <c r="E11">
         <v>10</v>
       </c>
@@ -2610,310 +2443,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF4DCB0-85D6-4076-87FF-4126675E54C9}">
-  <dimension ref="A1:D53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEBD923E-8299-4450-B2D0-D9E2AE16D359}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A53"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>160</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>162</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>163</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>164</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
